--- a/medicine/Mort/Cimetière_de_Karet_Bivak/Cimetière_de_Karet_Bivak.xlsx
+++ b/medicine/Mort/Cimetière_de_Karet_Bivak/Cimetière_de_Karet_Bivak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Karet_Bivak</t>
+          <t>Cimetière_de_Karet_Bivak</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karet Bivak est un cimetière de la ville de Jakarta, capitale de l'Indonésie. Avec une superficie de 16,2 hectares et plus de 48 000 tombes, c'est le second plus grand cimetière de la ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Karet_Bivak</t>
+          <t>Cimetière_de_Karet_Bivak</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Célébrités enterrées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chairil Anwar (1922-1949), poète
 Fatmawati (1923-1980), femme du premier président d'Indonésie Soekarno
